--- a/medicine/Mort/Cimetière_de_Villiers-sur-Marne/Cimetière_de_Villiers-sur-Marne.xlsx
+++ b/medicine/Mort/Cimetière_de_Villiers-sur-Marne/Cimetière_de_Villiers-sur-Marne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Villiers-sur-Marne</t>
+          <t>Cimetière_de_Villiers-sur-Marne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Villiers-sur-Marne est le cimetière de cette commune du Val-de-Marne[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Villiers-sur-Marne est le cimetière de cette commune du Val-de-Marne,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Villiers-sur-Marne</t>
+          <t>Cimetière_de_Villiers-sur-Marne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est localisé rue Christophe-Guinegagne, dans le nord de la commune de Villiers-sur-Marne.
-Il y accueille le monument aux morts de la commune, portant cent soixante-neuf noms[3] ainsi qu'un carré militaire à la mémoire de cent-treize défunts[4],[5]. On y trouve de plus une plaque à la mémoire du sacrifice des soldats portugais morts pour la France pendant la Première Guerre mondiale.
-Il existe un projet d'extension de ce cimetière[6].
+Il y accueille le monument aux morts de la commune, portant cent soixante-neuf noms ainsi qu'un carré militaire à la mémoire de cent-treize défunts,. On y trouve de plus une plaque à la mémoire du sacrifice des soldats portugais morts pour la France pendant la Première Guerre mondiale.
+Il existe un projet d'extension de ce cimetière.
 			Monument aux morts.
 			Carré militaire.
 			Plaque des victimes civiles de la 2de Guerre mondiale.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Villiers-sur-Marne</t>
+          <t>Cimetière_de_Villiers-sur-Marne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,14 @@
           <t>Personnes inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Adelina Concha (1840-1892), philanthrope péruvienne (chapelle)
 Octave Lapize, vainqueur du tour de France cycliste en 1910, mort au combat le 14 juillet 1917
-Georges van Parys (1902-1971), compositeur de musique de films[7].
-Maurice Roy, exécuté sommairement le 10 juin 1944 à La Ferté-Saint-Aubin. Mort pour la France, une rue de la ville porte son nom[8]</t>
+Georges van Parys (1902-1971), compositeur de musique de films.
+Maurice Roy, exécuté sommairement le 10 juin 1944 à La Ferté-Saint-Aubin. Mort pour la France, une rue de la ville porte son nom</t>
         </is>
       </c>
     </row>
